--- a/example-files/Sample-Table-Data.xlsx
+++ b/example-files/Sample-Table-Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrixon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7015E7-489C-4482-A5DC-ED5F8E3CCD5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7052A542-147F-4E92-9848-8621E708411F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{105462A4-4521-4BCB-AD78-137DF57098EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample-Table-Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="33">
   <si>
     <t>Order Date</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Total Sale</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
     <t>East</t>
   </si>
   <si>
@@ -66,70 +63,67 @@
     <t>Pencil</t>
   </si>
   <si>
-    <t>Kivell</t>
-  </si>
-  <si>
     <t>Pen</t>
-  </si>
-  <si>
-    <t>Sorvino</t>
   </si>
   <si>
     <t>West</t>
   </si>
   <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
     <t>South</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Allan</t>
-  </si>
-  <si>
-    <t>Hubbard</t>
-  </si>
-  <si>
-    <t>Sandoval</t>
-  </si>
-  <si>
-    <t>Parsons</t>
   </si>
   <si>
     <t>North</t>
   </si>
   <si>
-    <t>Davidson</t>
+    <t>Jack Potts</t>
   </si>
   <si>
-    <t>Houston</t>
+    <t>Brighton Earleigh</t>
   </si>
   <si>
-    <t>Tate</t>
+    <t>Gale Force</t>
   </si>
   <si>
-    <t>Townsend</t>
+    <t>Dennis Racket</t>
   </si>
   <si>
-    <t>Vaughn</t>
+    <t>Ophelia Payne</t>
   </si>
   <si>
-    <t>Henderson</t>
+    <t>Iona Ford</t>
   </si>
   <si>
-    <t>Wong</t>
+    <t>Rich Fella</t>
+  </si>
+  <si>
+    <t>Chester Draws</t>
+  </si>
+  <si>
+    <t>Rocky Rhoades</t>
+  </si>
+  <si>
+    <t>Helen Back</t>
+  </si>
+  <si>
+    <t>Kris Mhass</t>
+  </si>
+  <si>
+    <t>Corey Ander</t>
+  </si>
+  <si>
+    <t>Sue Flay</t>
+  </si>
+  <si>
+    <t>Patty O'Ferncher</t>
+  </si>
+  <si>
+    <t>Justin Case</t>
+  </si>
+  <si>
+    <t>Rufus Leaking</t>
+  </si>
+  <si>
+    <t>Molly Kuehl</t>
   </si>
 </sst>
 </file>
@@ -175,6 +169,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -251,19 +248,16 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Custom_Light" pivot="0" count="7" xr9:uid="{AC6F1017-8EBB-476D-ADFC-AAAE33D1F4B4}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -278,12 +272,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F9E9E05-A8C2-4940-B4F7-C7542B0E5BEE}" name="Table2" displayName="Table2" ref="A1:G154" totalsRowShown="0">
-  <sortState ref="A2:G154">
-    <sortCondition ref="A1:A154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F9E9E05-A8C2-4940-B4F7-C7542B0E5BEE}" name="Table2" displayName="Table2" ref="A1:G151" totalsRowShown="0">
+  <sortState ref="A2:G151">
+    <sortCondition ref="A1:A151"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BB3E4C08-6B18-4CB4-826B-40A01381A793}" name="Order Date" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BB3E4C08-6B18-4CB4-826B-40A01381A793}" name="Order Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BDFBE2C3-6ADC-4D5E-B3F1-E2CB1307FE9B}" name="Rep"/>
     <tableColumn id="3" xr3:uid="{C1431F0A-31E2-4961-A3C4-AE7ACD44B76D}" name="Region"/>
     <tableColumn id="4" xr3:uid="{FFBFD60C-213B-4BC2-B937-29B70CCAC00A}" name="Item"/>
@@ -592,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723EF7FF-8B3B-49A4-A763-97DD58CC4720}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,22 +628,22 @@
         <v>43831</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G2">
-        <v>3.96</v>
+        <v>755.93999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,22 +651,22 @@
         <v>43831</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>125.99</v>
       </c>
       <c r="G3">
-        <v>629.94999999999993</v>
+        <v>377.96999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,22 +674,22 @@
         <v>43831</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>19.989999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="G4">
-        <v>39.979999999999997</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,13 +697,13 @@
         <v>43832</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,416 +717,416 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43835</v>
+        <v>43833</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>4.49</v>
+        <v>1.29</v>
       </c>
       <c r="G6">
-        <v>17.96</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43835</v>
+        <v>43834</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>4.49</v>
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>13.47</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43837</v>
+        <v>43834</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G8">
-        <v>1.29</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43837</v>
+        <v>43835</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>19.989999999999998</v>
+        <v>4.49</v>
       </c>
       <c r="G9">
-        <v>99.949999999999989</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43838</v>
+        <v>43836</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G10">
-        <v>1.98</v>
+        <v>629.94999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>4.49</v>
+        <v>0.99</v>
       </c>
       <c r="G11">
-        <v>13.47</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43840</v>
+        <v>43836</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0.99</v>
       </c>
       <c r="G12">
-        <v>2.9699999999999998</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43840</v>
+        <v>43837</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G13">
-        <v>22.450000000000003</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43840</v>
+        <v>43838</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>125.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G14">
-        <v>377.96999999999997</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43843</v>
+        <v>43839</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>4.49</v>
+        <v>1.29</v>
       </c>
       <c r="G15">
-        <v>4.49</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43845</v>
+        <v>43842</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
       <c r="G16">
-        <v>4.95</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43845</v>
+        <v>43842</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>125.99</v>
+        <v>4.49</v>
       </c>
       <c r="G17">
-        <v>503.96</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43845</v>
+        <v>43843</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G18">
-        <v>35.92</v>
+        <v>377.96999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43845</v>
+        <v>43844</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>4.49</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G19">
-        <v>17.96</v>
+        <v>99.949999999999989</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G20">
-        <v>1.29</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43848</v>
+        <v>43847</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0.99</v>
       </c>
       <c r="G21">
-        <v>0.99</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43849</v>
+        <v>43847</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G22">
-        <v>1007.92</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43850</v>
+        <v>43848</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>19.989999999999998</v>
+        <v>4.49</v>
       </c>
       <c r="G23">
-        <v>79.959999999999994</v>
+        <v>22.450000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,666 +1134,666 @@
         <v>43851</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>19.989999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="G24">
-        <v>99.949999999999989</v>
+        <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43855</v>
+        <v>43852</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>19.989999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="G25">
-        <v>39.979999999999997</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43855</v>
+        <v>43854</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G26">
-        <v>503.96</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43856</v>
+        <v>43854</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G27">
-        <v>9.0300000000000011</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43856</v>
+        <v>43859</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G28">
-        <v>629.94999999999993</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43856</v>
+        <v>43860</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G29">
-        <v>3.96</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43857</v>
+        <v>43861</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1.29</v>
       </c>
       <c r="G30">
-        <v>9.0300000000000011</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43859</v>
+        <v>43861</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G31">
-        <v>119.94</v>
+        <v>125.99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43859</v>
+        <v>43861</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G32">
-        <v>79.959999999999994</v>
+        <v>251.98</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>125.99</v>
+        <v>4.49</v>
       </c>
       <c r="G33">
-        <v>629.94999999999993</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43861</v>
+        <v>43863</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="G34">
-        <v>3.87</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>125.99</v>
+        <v>4.49</v>
       </c>
       <c r="G35">
-        <v>881.93</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>19.989999999999998</v>
+        <v>4.49</v>
       </c>
       <c r="G36">
-        <v>19.989999999999998</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43867</v>
+        <v>43865</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>1.29</v>
       </c>
       <c r="G37">
-        <v>1.29</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43870</v>
+        <v>43865</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="G38">
-        <v>10.32</v>
+        <v>2.9699999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43870</v>
+        <v>43867</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G39">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43873</v>
+        <v>43867</v>
       </c>
       <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>4.49</v>
+        <v>1.29</v>
       </c>
       <c r="G40">
-        <v>4.49</v>
+        <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43876</v>
+        <v>43868</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G41">
-        <v>159.91999999999999</v>
+        <v>629.94999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43880</v>
+        <v>43871</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G42">
-        <v>4.95</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43881</v>
+        <v>43871</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G43">
-        <v>9.0300000000000011</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43882</v>
+        <v>43872</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G44">
-        <v>1.98</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43882</v>
+        <v>43873</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G45">
-        <v>3.96</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43886</v>
+        <v>43874</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G46">
-        <v>139.92999999999998</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43888</v>
+        <v>43878</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>4.49</v>
+        <v>0.99</v>
       </c>
       <c r="G47">
-        <v>31.43</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43888</v>
+        <v>43879</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>125.99</v>
+        <v>0.99</v>
       </c>
       <c r="G48">
-        <v>503.96</v>
+        <v>2.9699999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43889</v>
+        <v>43882</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0.99</v>
       </c>
       <c r="G49">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43890</v>
+        <v>43884</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G50">
-        <v>0.99</v>
+        <v>881.93</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>125.99</v>
       </c>
       <c r="G51">
-        <v>251.98</v>
+        <v>125.99</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43890</v>
+        <v>43886</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G52">
-        <v>2.9699999999999998</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,45 +1801,45 @@
         <v>43890</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>19.989999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="G53">
-        <v>159.91999999999999</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G54">
-        <v>59.97</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,19 +1850,19 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
       <c r="G55">
-        <v>0.99</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1876,36 +1870,36 @@
         <v>43892</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <v>19.989999999999998</v>
       </c>
       <c r="G56">
-        <v>139.92999999999998</v>
+        <v>159.91999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>8</v>
@@ -1919,25 +1913,25 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G58">
-        <v>59.97</v>
+        <v>755.93999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,33 +1939,33 @@
         <v>43895</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G59">
-        <v>139.92999999999998</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -1980,1082 +1974,1082 @@
         <v>6</v>
       </c>
       <c r="F60">
-        <v>4.49</v>
+        <v>0.99</v>
       </c>
       <c r="G60">
-        <v>26.94</v>
+        <v>5.9399999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43899</v>
+        <v>43896</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F61">
         <v>1.29</v>
       </c>
       <c r="G61">
-        <v>7.74</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43902</v>
+        <v>43897</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>6</v>
       </c>
       <c r="F62">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G62">
-        <v>119.94</v>
+        <v>5.9399999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43903</v>
+        <v>43898</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63">
         <v>125.99</v>
       </c>
       <c r="G63">
-        <v>881.93</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43904</v>
+        <v>43899</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G64">
-        <v>1.98</v>
+        <v>99.949999999999989</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43908</v>
+        <v>43901</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>4.49</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G65">
-        <v>35.92</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43910</v>
+        <v>43901</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>19.989999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="G66">
-        <v>119.94</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43911</v>
+        <v>43901</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>19.989999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="G67">
-        <v>99.949999999999989</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43912</v>
+        <v>43905</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>19.989999999999998</v>
       </c>
       <c r="G68">
-        <v>59.97</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69">
         <v>19.989999999999998</v>
       </c>
       <c r="G69">
-        <v>99.949999999999989</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43913</v>
+        <v>43907</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>4.49</v>
       </c>
       <c r="G70">
-        <v>35.92</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43916</v>
+        <v>43907</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F71">
-        <v>4.49</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G71">
-        <v>35.92</v>
+        <v>119.94</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72">
         <v>4.49</v>
       </c>
       <c r="G72">
-        <v>22.450000000000003</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43917</v>
+        <v>43909</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>125.99</v>
       </c>
       <c r="G73">
-        <v>377.96999999999997</v>
+        <v>629.94999999999993</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G74">
-        <v>10.32</v>
+        <v>79.959999999999994</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43917</v>
+        <v>43911</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0.99</v>
       </c>
       <c r="G75">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>125.99</v>
+        <v>0.99</v>
       </c>
       <c r="G76">
-        <v>125.99</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G77">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F78">
         <v>4.49</v>
       </c>
       <c r="G78">
-        <v>35.92</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>4.49</v>
       </c>
       <c r="G79">
-        <v>4.49</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G80">
-        <v>755.93999999999994</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F81">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G81">
-        <v>22.450000000000003</v>
+        <v>881.93</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G82">
-        <v>59.97</v>
+        <v>503.96</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>0.99</v>
       </c>
       <c r="G83">
-        <v>5.9399999999999995</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="G84">
-        <v>6.45</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G85">
-        <v>7.74</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G86">
-        <v>5.9399999999999995</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G87">
-        <v>79.959999999999994</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43929</v>
+        <v>43924</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G88">
-        <v>0.99</v>
+        <v>251.98</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43932</v>
+        <v>43927</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G89">
-        <v>4.95</v>
+        <v>251.98</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43934</v>
+        <v>43928</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F90">
         <v>0.99</v>
       </c>
       <c r="G90">
-        <v>1.98</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43934</v>
+        <v>43929</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <v>19.989999999999998</v>
+        <v>4.49</v>
       </c>
       <c r="G91">
-        <v>59.97</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G92">
-        <v>1.98</v>
+        <v>139.92999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F93">
         <v>0.99</v>
       </c>
       <c r="G93">
-        <v>0.99</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
       <c r="G94">
-        <v>1.98</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>1.29</v>
+        <v>125.99</v>
       </c>
       <c r="G95">
-        <v>1.29</v>
+        <v>251.98</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43940</v>
+        <v>43935</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96">
         <v>6</v>
       </c>
       <c r="F96">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G96">
-        <v>7.74</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43940</v>
+        <v>43936</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.29</v>
+        <v>125.99</v>
       </c>
       <c r="G97">
-        <v>3.87</v>
+        <v>125.99</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43943</v>
+        <v>43937</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>125.99</v>
+        <v>0.99</v>
       </c>
       <c r="G98">
-        <v>629.94999999999993</v>
+        <v>2.9699999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F99">
-        <v>1.29</v>
+        <v>125.99</v>
       </c>
       <c r="G99">
-        <v>2.58</v>
+        <v>755.93999999999994</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F100">
         <v>1.29</v>
       </c>
       <c r="G100">
-        <v>5.16</v>
+        <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G101">
-        <v>5.9399999999999995</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G102">
-        <v>2.9699999999999998</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43946</v>
+        <v>43942</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F103">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G103">
-        <v>503.96</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43948</v>
+        <v>43943</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>1.29</v>
+        <v>125.99</v>
       </c>
       <c r="G104">
-        <v>10.32</v>
+        <v>503.96</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43949</v>
+        <v>43943</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G105">
-        <v>26.94</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43953</v>
+        <v>43944</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F106">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G106">
-        <v>1.29</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43954</v>
+        <v>43946</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>7</v>
@@ -3069,404 +3063,404 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43954</v>
+        <v>43947</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>125.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G108">
-        <v>881.93</v>
+        <v>159.91999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43955</v>
+        <v>43947</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F109">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G109">
-        <v>5.16</v>
+        <v>139.92999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43956</v>
+        <v>43949</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>19.989999999999998</v>
+        <v>4.49</v>
       </c>
       <c r="G110">
-        <v>79.959999999999994</v>
+        <v>22.450000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43956</v>
+        <v>43950</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E111">
         <v>7</v>
       </c>
       <c r="F111">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G111">
-        <v>6.93</v>
+        <v>881.93</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43958</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F112">
         <v>1.29</v>
       </c>
       <c r="G112">
-        <v>9.0300000000000011</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>4.49</v>
+        <v>0.99</v>
       </c>
       <c r="G113">
-        <v>4.49</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G114">
-        <v>6.93</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F115">
         <v>1.29</v>
       </c>
       <c r="G115">
-        <v>6.45</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G116">
-        <v>3.96</v>
+        <v>159.91999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>125.99</v>
+        <v>4.49</v>
       </c>
       <c r="G117">
-        <v>755.93999999999994</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>1.29</v>
       </c>
       <c r="G118">
-        <v>6.45</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G119">
-        <v>1.29</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>125.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G120">
-        <v>1007.92</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>125.99</v>
+        <v>0.99</v>
       </c>
       <c r="G121">
-        <v>755.93999999999994</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G122">
-        <v>22.450000000000003</v>
+        <v>755.93999999999994</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F123">
         <v>125.99</v>
       </c>
       <c r="G123">
-        <v>125.99</v>
+        <v>629.94999999999993</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124">
-        <v>19.989999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G124">
-        <v>19.989999999999998</v>
+        <v>2.9699999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
         <v>15</v>
-      </c>
-      <c r="C125" t="s">
-        <v>16</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -3475,24 +3469,24 @@
         <v>4</v>
       </c>
       <c r="F125">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G125">
-        <v>79.959999999999994</v>
+        <v>503.96</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43975</v>
+        <v>43971</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -3506,85 +3500,85 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43976</v>
+        <v>43971</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F127">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G127">
-        <v>1.29</v>
+        <v>99.949999999999989</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43976</v>
+        <v>43972</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G128">
-        <v>4.95</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43977</v>
+        <v>43973</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G129">
-        <v>1007.92</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -3601,344 +3595,344 @@
         <v>43981</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F131">
         <v>0.99</v>
       </c>
       <c r="G131">
-        <v>0.99</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43986</v>
+        <v>43982</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F132">
-        <v>125.99</v>
+        <v>1.29</v>
       </c>
       <c r="G132">
-        <v>1007.92</v>
+        <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43989</v>
+        <v>43982</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F133">
-        <v>1.29</v>
+        <v>4.49</v>
       </c>
       <c r="G133">
-        <v>3.87</v>
+        <v>22.450000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43990</v>
+        <v>43983</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F134">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G134">
-        <v>22.450000000000003</v>
+        <v>755.93999999999994</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43991</v>
+        <v>43983</v>
       </c>
       <c r="B135" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F135">
         <v>19.989999999999998</v>
       </c>
       <c r="G135">
-        <v>79.959999999999994</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43991</v>
+        <v>43986</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F136">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G136">
-        <v>6.93</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43992</v>
+        <v>43987</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>0.99</v>
+        <v>125.99</v>
       </c>
       <c r="G137">
-        <v>4.95</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43993</v>
+        <v>43987</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F138">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G138">
-        <v>4.95</v>
+        <v>39.979999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43994</v>
+        <v>43990</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F139">
-        <v>1.29</v>
+        <v>125.99</v>
       </c>
       <c r="G139">
-        <v>6.45</v>
+        <v>755.93999999999994</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43996</v>
+        <v>43991</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F140">
-        <v>19.989999999999998</v>
+        <v>125.99</v>
       </c>
       <c r="G140">
-        <v>59.97</v>
+        <v>1007.92</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43996</v>
+        <v>43991</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F141">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G141">
-        <v>2.9699999999999998</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43997</v>
+        <v>43993</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F142">
-        <v>1.29</v>
+        <v>0.99</v>
       </c>
       <c r="G142">
-        <v>3.87</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43998</v>
+        <v>43995</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F143">
-        <v>0.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G143">
-        <v>3.96</v>
+        <v>139.92999999999998</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43998</v>
+        <v>43995</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F144">
         <v>4.49</v>
       </c>
       <c r="G144">
-        <v>4.49</v>
+        <v>22.450000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F145">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G145">
-        <v>13.47</v>
+        <v>251.98</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3946,22 +3940,22 @@
         <v>44000</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G146">
-        <v>2.58</v>
+        <v>19.989999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3969,36 +3963,36 @@
         <v>44000</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G147">
-        <v>5.16</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -4015,137 +4009,68 @@
         <v>44002</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F149">
-        <v>0.99</v>
+        <v>4.49</v>
       </c>
       <c r="G149">
-        <v>4.95</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44002</v>
+        <v>44009</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F150">
-        <v>1.29</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G150">
-        <v>9.0300000000000011</v>
+        <v>79.959999999999994</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B151" t="s">
         <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F151">
-        <v>4.49</v>
+        <v>125.99</v>
       </c>
       <c r="G151">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>125.99</v>
-      </c>
-      <c r="G152">
-        <v>125.99</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B153" t="s">
-        <v>29</v>
-      </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153">
-        <v>2</v>
-      </c>
-      <c r="F153">
-        <v>1.29</v>
-      </c>
-      <c r="G153">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>44012</v>
-      </c>
-      <c r="B154" t="s">
-        <v>23</v>
-      </c>
-      <c r="C154" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154">
-        <v>2</v>
-      </c>
-      <c r="F154">
-        <v>4.49</v>
-      </c>
-      <c r="G154">
-        <v>8.98</v>
+        <v>1007.92</v>
       </c>
     </row>
   </sheetData>
